--- a/public/stories/reporte.xlsx
+++ b/public/stories/reporte.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>15.003.817-0</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Salinas, Horacio</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,48 +439,9 @@
   <cols>
     <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="41.132813" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="3.427734" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="C2">
-        <v>37</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>41</v>
-      </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -485,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -493,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -501,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -509,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -517,7 +481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -525,7 +489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -533,7 +497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -541,7 +505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -549,7 +513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -557,7 +521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -565,12 +529,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/public/stories/reporte.xlsx
+++ b/public/stories/reporte.xlsx
@@ -15,78 +15,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>15.003.817-0</t>
-  </si>
-  <si>
-    <t>Alvarez Carvajal, Lesly Karen</t>
-  </si>
-  <si>
-    <t>16.093.963-K</t>
-  </si>
-  <si>
-    <t>ALVAREZ FERREIRA, GISELLE KARINA</t>
-  </si>
-  <si>
-    <t>33.333.333-3</t>
-  </si>
-  <si>
-    <t>asdf, asdf</t>
-  </si>
-  <si>
-    <t>12.949.532-4</t>
-  </si>
-  <si>
-    <t>atencio herrera, jose miguel</t>
-  </si>
-  <si>
-    <t>24.324.376-9</t>
-  </si>
-  <si>
-    <t>Cahurey Sosa, Beatriz</t>
-  </si>
-  <si>
-    <t>6.251.206-7</t>
-  </si>
-  <si>
-    <t>Cayo Paycho, Leonilda Videlva</t>
-  </si>
-  <si>
-    <t>23.059.474-0</t>
-  </si>
-  <si>
-    <t>Chacchi Cardenas, Franklin German</t>
-  </si>
-  <si>
-    <t>13.057.945-0</t>
-  </si>
-  <si>
-    <t>GUTIERREZ BARRAZA, ROBERTO ANTONIO</t>
-  </si>
-  <si>
-    <t>12.418.952-7</t>
-  </si>
-  <si>
-    <t>Jaque Castro, Hector Hernan</t>
-  </si>
-  <si>
-    <t>8.499.423-5</t>
-  </si>
-  <si>
-    <t>Moruna Mollo, Delia Concepcion</t>
-  </si>
-  <si>
-    <t>7.413.192-1</t>
-  </si>
-  <si>
-    <t>Ramos Callasaya, Erika Ruth</t>
-  </si>
-  <si>
-    <t>99.999.999-9</t>
-  </si>
-  <si>
-    <t>Salinas, Horacio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>Anticipo</t>
+  </si>
+  <si>
+    <t>APV Capital</t>
+  </si>
+  <si>
+    <t>APV Cuprum</t>
+  </si>
+  <si>
+    <t>Salud Consalud</t>
+  </si>
+  <si>
+    <t>AFC AFP Capital</t>
+  </si>
+  <si>
+    <t>AFP Capital</t>
+  </si>
+  <si>
+    <t>8.554.796-8</t>
+  </si>
+  <si>
+    <t>ARAVENA PUEBLA, MARCELO PATRICI</t>
+  </si>
+  <si>
+    <t>$50.000</t>
+  </si>
+  <si>
+    <t>$300.000</t>
+  </si>
+  <si>
+    <t>$5.000</t>
+  </si>
+  <si>
+    <t>$185.766</t>
+  </si>
+  <si>
+    <t>$713</t>
+  </si>
+  <si>
+    <t>$13.592</t>
+  </si>
+  <si>
+    <t>6.443.121-8</t>
+  </si>
+  <si>
+    <t>GUILLON MARETTI, MARIETTE JASMINE</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>10.407.874-5</t>
+  </si>
+  <si>
+    <t>MORALES LEON, ALVARO</t>
+  </si>
+  <si>
+    <t>8.077.164-9</t>
+  </si>
+  <si>
+    <t>RUDOLPHY FONTAINE, ANDRES</t>
+  </si>
+  <si>
+    <t>10.273.278-2</t>
+  </si>
+  <si>
+    <t>SAN MARTÍN SEPÚLVEDA, RODRIGO DANIEL</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -429,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,108 +435,186 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
